--- a/src/test/resources/Test Data/Test Execution Sheet.xlsx
+++ b/src/test/resources/Test Data/Test Execution Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Suite" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -461,7 +461,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
